--- a/Sprint/Jira.xlsx
+++ b/Sprint/Jira.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TheEnterpriseV2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TheEnterpriseV2/Desktop/Actual Git/Sprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A3:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,10 +901,10 @@
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J29" t="s">
@@ -912,28 +912,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Sprint/Jira.xlsx
+++ b/Sprint/Jira.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Tom</t>
   </si>
@@ -213,6 +213,45 @@
   </si>
   <si>
     <t>Anglo Saxon castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly </t>
+  </si>
+  <si>
+    <t>16/11/16 - 22/11/16</t>
+  </si>
+  <si>
+    <t>Clear on Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock movement </t>
+  </si>
+  <si>
+    <t>Menu Scroll</t>
+  </si>
+  <si>
+    <t>Scrore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portal </t>
+  </si>
+  <si>
+    <t>Texture Stall</t>
+  </si>
+  <si>
+    <t>Texture Plow</t>
+  </si>
+  <si>
+    <t>Model Norman Shield</t>
+  </si>
+  <si>
+    <t>Skeleton Menu Waypoiunt</t>
+  </si>
+  <si>
+    <t>Code menu UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trello </t>
   </si>
 </sst>
 </file>
@@ -292,6 +331,844 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Project</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Hours Logged</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$43,Sheet1!$F$43,Sheet1!$I$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.231385470020131"/>
+          <c:y val="0.929646287669539"/>
+          <c:w val="0.577682006982137"/>
+          <c:h val="0.0494113039534979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J36"/>
+  <dimension ref="A3:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,58 +1778,136 @@
       <c r="A29" t="s">
         <v>51</v>
       </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
       <c r="J29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>3</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C43">
         <f>SUM(C5:C33)</f>
-        <v>30</v>
-      </c>
-      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="F43">
         <f>SUM(F5:F33)</f>
-        <v>29.5</v>
-      </c>
-      <c r="I36">
+        <v>40.5</v>
+      </c>
+      <c r="I43">
         <f>SUM(I5:I33)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>